--- a/data/trans_dic/P25A$preocupacion-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04763863628917091</v>
+        <v>0.04893150048240727</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04521873872550564</v>
+        <v>0.04589410715254857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08713310215451885</v>
+        <v>0.08767295581748603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01936677095014934</v>
+        <v>0.01948221785109102</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03283697330432794</v>
+        <v>0.03617033243448943</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01381425354956581</v>
+        <v>0.0136837164915486</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0501838609703207</v>
+        <v>0.04963351223425236</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05360317993989029</v>
+        <v>0.05290209146499624</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06729652919125902</v>
+        <v>0.07446035340441025</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1570784150999499</v>
+        <v>0.1564308942709277</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1265921373670539</v>
+        <v>0.1226837489546468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1888591386499564</v>
+        <v>0.191693084646907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1768939782638414</v>
+        <v>0.1770586233697214</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1520804003706766</v>
+        <v>0.1559754460394419</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1361118231989759</v>
+        <v>0.1332919456976374</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1362174124530225</v>
+        <v>0.1367854189909287</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1172733313987848</v>
+        <v>0.1147821362743626</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1477383643239529</v>
+        <v>0.1522145843362174</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04046386812204651</v>
+        <v>0.03860041505558431</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03556254934729671</v>
+        <v>0.03556515098112963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04275017483566216</v>
+        <v>0.04518604390033469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01482419798650824</v>
+        <v>0.01500609413003235</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04473073623795466</v>
+        <v>0.0415338372887613</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06191659700500184</v>
+        <v>0.06127691818740347</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04010924046475475</v>
+        <v>0.03886761980087757</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04560872207989023</v>
+        <v>0.04633449636147126</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0637333132014706</v>
+        <v>0.06327216186395891</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1091249268117453</v>
+        <v>0.1061693823321952</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09822798840585886</v>
+        <v>0.09570828302418512</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1237185510957856</v>
+        <v>0.1316796245930156</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1325687632731685</v>
+        <v>0.132209382812795</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.149720996249257</v>
+        <v>0.1463395917382189</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.197318846392862</v>
+        <v>0.202029036012218</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09971304602851801</v>
+        <v>0.09894035386331174</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09985211892976792</v>
+        <v>0.0987419461081846</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1357687124656824</v>
+        <v>0.1335080717767806</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04499807145181073</v>
+        <v>0.04684871724186033</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05125917435313753</v>
+        <v>0.05215492211799838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09105279558274068</v>
+        <v>0.09745864679759826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03165716333286682</v>
+        <v>0.03425801406166933</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009686273199022934</v>
+        <v>0.01020895687553789</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03239887334286465</v>
+        <v>0.02631918450402152</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04902483920880792</v>
+        <v>0.05307764649504619</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04669843860217084</v>
+        <v>0.04608303466600232</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08271687224372987</v>
+        <v>0.08066509485578056</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.121406228443713</v>
+        <v>0.1239854509450229</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1259134112574457</v>
+        <v>0.1253558428014</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2161231630769508</v>
+        <v>0.2147009782677021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1566791999338221</v>
+        <v>0.1626338098829735</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1018263307032628</v>
+        <v>0.09493795212818025</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1514840243064671</v>
+        <v>0.1537507934710597</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1139268032083931</v>
+        <v>0.119271476000644</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.102674625850743</v>
+        <v>0.1010702785190537</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1692864397072936</v>
+        <v>0.1709727476134331</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02548551406357964</v>
+        <v>0.03401893436095634</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04884977943513236</v>
+        <v>0.04389494971988234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.047580144941413</v>
+        <v>0.04492638724071266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05593743224477671</v>
+        <v>0.05847756223647976</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06675002752908035</v>
+        <v>0.05828916403546382</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02785071825611632</v>
+        <v>0.02823815887224723</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05442102421102005</v>
+        <v>0.05156664077393221</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0642138563994242</v>
+        <v>0.06463749219279841</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05200302590155527</v>
+        <v>0.0508371886031975</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1489659215225467</v>
+        <v>0.1500602551706857</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2111366416626584</v>
+        <v>0.1988893371086736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.184372396259735</v>
+        <v>0.1831535959499922</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3065851938529544</v>
+        <v>0.3094972702456941</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2893663052688458</v>
+        <v>0.2754370861862636</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1505332172209131</v>
+        <v>0.151550016437547</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1714611276603558</v>
+        <v>0.1659218863408781</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1812011229153112</v>
+        <v>0.187793507181453</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1524838408250112</v>
+        <v>0.1524677549841476</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05896350649939559</v>
+        <v>0.05908002127051283</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06011660800437398</v>
+        <v>0.05971308985598426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09094008586139816</v>
+        <v>0.09318442370248005</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05276803045303691</v>
+        <v>0.05249635937120674</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0549473593168556</v>
+        <v>0.05503771031770304</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05557154869363048</v>
+        <v>0.05486880172907003</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06229039584235844</v>
+        <v>0.06246065474582808</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06428556861848018</v>
+        <v>0.06372095596436927</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08608277494164408</v>
+        <v>0.08488764133973331</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1009634460079042</v>
+        <v>0.102342402789221</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09954404143848906</v>
+        <v>0.09832783472391964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1452079087950653</v>
+        <v>0.148199281096771</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1287277784736145</v>
+        <v>0.130026532947053</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1156854050885234</v>
+        <v>0.1121111113980345</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.114444590529804</v>
+        <v>0.1168950096464082</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1003428520183986</v>
+        <v>0.09999637813364272</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09798025899785937</v>
+        <v>0.09653258791974673</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1264491627251546</v>
+        <v>0.1260172415197134</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5977</v>
+        <v>6139</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9657</v>
+        <v>9801</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15710</v>
+        <v>15808</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3718</v>
+        <v>4095</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8894</v>
+        <v>8796</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17517</v>
+        <v>17288</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18364</v>
+        <v>20319</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19706</v>
+        <v>19625</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27035</v>
+        <v>26200</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34051</v>
+        <v>34562</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9157</v>
+        <v>9166</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17220</v>
+        <v>17661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12601</v>
+        <v>12340</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24141</v>
+        <v>24242</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38324</v>
+        <v>37509</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40315</v>
+        <v>41537</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7969</v>
+        <v>7602</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9148</v>
+        <v>9149</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6904</v>
+        <v>7297</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5632</v>
+        <v>5230</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5758</v>
+        <v>5698</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10726</v>
+        <v>10394</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17476</v>
+        <v>17754</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>16219</v>
+        <v>16102</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21492</v>
+        <v>20910</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25268</v>
+        <v>24620</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19980</v>
+        <v>21265</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9342</v>
+        <v>9316</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18853</v>
+        <v>18427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18350</v>
+        <v>18788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26665</v>
+        <v>26458</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>38260</v>
+        <v>37834</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>34552</v>
+        <v>33976</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9810</v>
+        <v>10214</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12063</v>
+        <v>12274</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14145</v>
+        <v>15140</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2743</v>
+        <v>2968</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>947</v>
+        <v>998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2628</v>
+        <v>2135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14936</v>
+        <v>16170</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15555</v>
+        <v>15350</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19559</v>
+        <v>19074</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26468</v>
+        <v>27031</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29632</v>
+        <v>29500</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33575</v>
+        <v>33354</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13575</v>
+        <v>14091</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9956</v>
+        <v>9282</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12287</v>
+        <v>12471</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34708</v>
+        <v>36337</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34201</v>
+        <v>33667</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40030</v>
+        <v>40429</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1984</v>
+        <v>2648</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5065</v>
+        <v>4551</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4933</v>
+        <v>4658</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1995</v>
+        <v>2086</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3252</v>
+        <v>2840</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1842</v>
+        <v>1868</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6178</v>
+        <v>5854</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9786</v>
+        <v>9851</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8831</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11597</v>
+        <v>11682</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21892</v>
+        <v>20622</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19116</v>
+        <v>18990</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10937</v>
+        <v>11040</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14097</v>
+        <v>13418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9956</v>
+        <v>10024</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19464</v>
+        <v>18836</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27615</v>
+        <v>28620</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25895</v>
+        <v>25892</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36455</v>
+        <v>36527</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48684</v>
+        <v>48357</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>54639</v>
+        <v>55988</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12904</v>
+        <v>12838</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21190</v>
+        <v>21224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18496</v>
+        <v>18262</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>53745</v>
+        <v>53892</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>76851</v>
+        <v>76176</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>80372</v>
+        <v>79256</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>62422</v>
+        <v>63275</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>80613</v>
+        <v>79628</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>87245</v>
+        <v>89042</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31480</v>
+        <v>31797</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>44612</v>
+        <v>43234</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>38090</v>
+        <v>38906</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>86577</v>
+        <v>86278</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>117131</v>
+        <v>115400</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>118060</v>
+        <v>117657</v>
       </c>
     </row>
     <row r="24">
